--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>447494.8494496967</v>
+        <v>521151.5387459981</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11761024.1363513</v>
+        <v>11789855.72949425</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12534509.66898357</v>
+        <v>12577120.36912181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7036295.70728523</v>
+        <v>7013319.380383263</v>
       </c>
     </row>
     <row r="11">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C8" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="G8" t="n">
         <v>4.562286607642875</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="U9" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="X9" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>4.018462044011843</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>289.294870301126</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.90872888831557</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.9021928729161</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>289.294870301126</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.294870301126</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>89.14525753719049</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.21170250806364</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>38.82407987710352</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2564645172453</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>20.64107630343904</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.625840843302859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>286.437992673366</v>
       </c>
       <c r="G14" t="n">
-        <v>289.294870301126</v>
+        <v>286.437992673366</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>150.7504061137002</v>
+        <v>150.9756961543083</v>
       </c>
       <c r="T14" t="n">
-        <v>211.9021928729161</v>
+        <v>211.9454712998064</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>289.294870301126</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4531930757414</v>
+        <v>175.811409165952</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>69.02353352937898</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.21170250806364</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>194.6713924681964</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8513713452678</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>20.01741941707276</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.0291037104164</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>4.708922087449014</v>
       </c>
       <c r="U16" t="n">
-        <v>142.8532016501318</v>
+        <v>286.2567064138745</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.437992673366</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>289.2948703011259</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>254.8109217612316</v>
+        <v>286.437992673366</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>289.2948703011259</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>286.437992673366</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>286.437992673366</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>289.2948703011259</v>
+        <v>252.2945839467008</v>
       </c>
     </row>
     <row r="18">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71.95936411152151</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>64.76008592510514</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>15.21170250806365</v>
+        <v>15.5401327118304</v>
       </c>
       <c r="S18" t="n">
-        <v>146.2701400558869</v>
+        <v>146.3683953478445</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.6713924681964</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>204.0271318980219</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>30.30836433431788</v>
+        <v>223.0636255899956</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2564645172453</v>
+        <v>286.2567064138745</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>40.90794185822365</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.437992673366</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>286.4379926733661</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>252.2945839467009</v>
       </c>
       <c r="D20" t="n">
-        <v>181.4531930757409</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>286.4379926733661</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>289.2948703011257</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>150.7504061137002</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.9021928729162</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>289.2948703011257</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>286.4379926733661</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>131.3721841852321</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.21170250806365</v>
+        <v>15.5401327118304</v>
       </c>
       <c r="S21" t="n">
-        <v>146.2701400558869</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.6500709538377</v>
+        <v>194.6713924681964</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8513713452678</v>
+        <v>225.8517193569276</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>70.43856142707452</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.8483920771578</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.0685328609638</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>114.721208303618</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>125.7191088924286</v>
+        <v>125.9185123470374</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>245.527581365129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>219.7096334071804</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
         <v>206.6581849802338</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>342.6869338819844</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H24" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269653</v>
       </c>
       <c r="I24" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.3387326418233</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>157.1139314377562</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>244.3509670247938</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>137.8659171849199</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>103.3387326418233</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>142.8412861002821</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>371.8883569032547</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>206.6581849802338</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>169.6193669154412</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.5027752869404</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>84.60432856796869</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2271541212006</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>19.10847166862611</v>
       </c>
       <c r="C32" t="n">
-        <v>66.85578476667368</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.01713719304394</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3066000448042</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>100.6867690249414</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3319,22 +3319,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>158.8157302813673</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>295.1813485615818</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T36" t="n">
         <v>192.0665623188214</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>43.2115860628508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.3387326418233</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>371.8883569032547</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>27.93061033756758</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3343964518637</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H39" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>85.36610313819149</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.99895236607887</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>120.1832932071799</v>
+        <v>84.49125640873797</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3824,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646386</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>136.7422396034692</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>46.73908388575327</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>23.47240143010534</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>90.23734439310813</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>116.9244933783652</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>182.7693978206563</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.581723550112187</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="C8" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="D8" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="E8" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="F8" t="n">
         <v>4.973353239361809</v>
@@ -4807,19 +4807,19 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K8" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L8" t="n">
-        <v>0.36498292861143</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M8" t="n">
-        <v>4.69915520587216</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N8" t="n">
-        <v>9.215818947438606</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O8" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P8" t="n">
         <v>18.2491464305715</v>
@@ -4828,28 +4828,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R8" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S8" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T8" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U8" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V8" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W8" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X8" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C9" t="n">
         <v>0.36498292861143</v>
@@ -4913,7 +4913,7 @@
         <v>13.64077611982112</v>
       </c>
       <c r="T9" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U9" t="n">
         <v>9.581723550112187</v>
@@ -4925,10 +4925,10 @@
         <v>4.973353239361809</v>
       </c>
       <c r="X9" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="10">
@@ -4965,16 +4965,16 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K10" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="M10" t="n">
         <v>4.69915520587216</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>9.215818947438606</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9.215818947438606</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13.73248268900505</v>
       </c>
       <c r="O10" t="n">
         <v>13.73248268900505</v>
@@ -4989,16 +4989,16 @@
         <v>13.64077611982112</v>
       </c>
       <c r="S10" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T10" t="n">
         <v>9.032405809070742</v>
       </c>
       <c r="U10" t="n">
-        <v>4.424035498320363</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V10" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W10" t="n">
         <v>0.36498292861143</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.14358962409008</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="C11" t="n">
-        <v>23.14358962409008</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="D11" t="n">
-        <v>23.14358962409008</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="E11" t="n">
-        <v>23.14358962409008</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F11" t="n">
-        <v>23.14358962409008</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G11" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H11" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I11" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J11" t="n">
-        <v>58.76757153274821</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K11" t="n">
-        <v>162.897204095148</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L11" t="n">
-        <v>328.9809829187105</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M11" t="n">
-        <v>545.4506252222319</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N11" t="n">
-        <v>770.0367810291006</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O11" t="n">
-        <v>968.771858196483</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P11" t="n">
-        <v>1103.886647801378</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q11" t="n">
-        <v>1157.179481204504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R11" t="n">
-        <v>1157.179481204504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S11" t="n">
-        <v>1113.837330812266</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T11" t="n">
-        <v>899.7947117487142</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U11" t="n">
-        <v>899.7947117487142</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V11" t="n">
-        <v>607.5776710405062</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W11" t="n">
-        <v>607.5776710405062</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X11" t="n">
-        <v>315.3606303322981</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y11" t="n">
-        <v>315.3606303322981</v>
+        <v>820.2300801016545</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>197.5966189052171</v>
+        <v>111.1428250841513</v>
       </c>
       <c r="C12" t="n">
-        <v>23.14358962409008</v>
+        <v>111.1428250841513</v>
       </c>
       <c r="D12" t="n">
-        <v>23.14358962409008</v>
+        <v>111.1428250841513</v>
       </c>
       <c r="E12" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F12" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G12" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H12" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I12" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J12" t="n">
-        <v>25.54314224318638</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K12" t="n">
-        <v>107.7991845892645</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L12" t="n">
-        <v>264.7251257048337</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M12" t="n">
-        <v>467.2071654405069</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N12" t="n">
-        <v>689.4569471796174</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O12" t="n">
-        <v>870.552282252962</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P12" t="n">
-        <v>996.5641880528063</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q12" t="n">
-        <v>1157.179481204504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R12" t="n">
-        <v>1141.814125135753</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S12" t="n">
-        <v>1141.814125135753</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T12" t="n">
-        <v>1141.814125135753</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U12" t="n">
-        <v>1102.597882835648</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V12" t="n">
-        <v>867.4457746039054</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W12" t="n">
-        <v>613.2084178757038</v>
+        <v>318.9943252896841</v>
       </c>
       <c r="X12" t="n">
-        <v>405.356917670171</v>
+        <v>111.1428250841513</v>
       </c>
       <c r="Y12" t="n">
-        <v>197.5966189052171</v>
+        <v>111.1428250841513</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K13" t="n">
-        <v>133.0272692335382</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L13" t="n">
-        <v>329.1669821098113</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M13" t="n">
-        <v>546.3579316153258</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N13" t="n">
-        <v>763.8191822090937</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O13" t="n">
-        <v>948.6635487412887</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P13" t="n">
-        <v>1083.309154931775</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q13" t="n">
-        <v>1093.095713270559</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R13" t="n">
-        <v>1093.095713270559</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S13" t="n">
-        <v>1093.095713270559</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T13" t="n">
-        <v>1093.095713270559</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U13" t="n">
-        <v>803.9477693137457</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V13" t="n">
-        <v>549.2632811078588</v>
+        <v>308.3243389909743</v>
       </c>
       <c r="W13" t="n">
-        <v>259.8461110708982</v>
+        <v>41.94668242379629</v>
       </c>
       <c r="X13" t="n">
-        <v>31.85656017288085</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.14358962409008</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.3606303322981</v>
+        <v>601.5776508752148</v>
       </c>
       <c r="C14" t="n">
-        <v>315.3606303322981</v>
+        <v>601.5776508752148</v>
       </c>
       <c r="D14" t="n">
-        <v>315.3606303322981</v>
+        <v>601.5776508752148</v>
       </c>
       <c r="E14" t="n">
-        <v>315.3606303322981</v>
+        <v>601.5776508752148</v>
       </c>
       <c r="F14" t="n">
-        <v>315.3606303322981</v>
+        <v>312.246345144542</v>
       </c>
       <c r="G14" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="H14" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="I14" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="J14" t="n">
-        <v>58.76757153274843</v>
+        <v>57.70830279358768</v>
       </c>
       <c r="K14" t="n">
-        <v>162.8972040951483</v>
+        <v>160.5929036226701</v>
       </c>
       <c r="L14" t="n">
-        <v>328.9809829187109</v>
+        <v>325.1321104878156</v>
       </c>
       <c r="M14" t="n">
-        <v>545.4506252222321</v>
+        <v>539.8831188804427</v>
       </c>
       <c r="N14" t="n">
-        <v>770.036781029101</v>
+        <v>762.722831482962</v>
       </c>
       <c r="O14" t="n">
-        <v>968.7718581964833</v>
+        <v>959.8087918557766</v>
       </c>
       <c r="P14" t="n">
-        <v>1103.886647801378</v>
+        <v>1093.516098430174</v>
       </c>
       <c r="Q14" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="R14" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="S14" t="n">
-        <v>1004.906343715918</v>
+        <v>993.2512675072941</v>
       </c>
       <c r="T14" t="n">
-        <v>790.8637246523662</v>
+        <v>779.1649328610249</v>
       </c>
       <c r="U14" t="n">
-        <v>790.8637246523662</v>
+        <v>779.1649328610249</v>
       </c>
       <c r="V14" t="n">
-        <v>498.6466839441581</v>
+        <v>779.1649328610249</v>
       </c>
       <c r="W14" t="n">
-        <v>498.6466839441581</v>
+        <v>779.1649328610249</v>
       </c>
       <c r="X14" t="n">
-        <v>315.3606303322981</v>
+        <v>601.5776508752148</v>
       </c>
       <c r="Y14" t="n">
-        <v>315.3606303322981</v>
+        <v>601.5776508752148</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>477.8500122639119</v>
+        <v>182.1524944193248</v>
       </c>
       <c r="C15" t="n">
-        <v>477.8500122639119</v>
+        <v>182.1524944193248</v>
       </c>
       <c r="D15" t="n">
-        <v>328.9156026026606</v>
+        <v>182.1524944193248</v>
       </c>
       <c r="E15" t="n">
-        <v>169.6781475972051</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="F15" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="G15" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="H15" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="I15" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="J15" t="n">
-        <v>25.54314224318638</v>
+        <v>148.000624602351</v>
       </c>
       <c r="K15" t="n">
-        <v>234.098052252978</v>
+        <v>229.4110257599606</v>
       </c>
       <c r="L15" t="n">
-        <v>391.0239933685472</v>
+        <v>385.1998979390295</v>
       </c>
       <c r="M15" t="n">
-        <v>593.5060331042204</v>
+        <v>586.3550318578838</v>
       </c>
       <c r="N15" t="n">
-        <v>815.7558148433309</v>
+        <v>807.2427885315356</v>
       </c>
       <c r="O15" t="n">
-        <v>996.8511499166756</v>
+        <v>987.0921367631807</v>
       </c>
       <c r="P15" t="n">
-        <v>1122.86305571652</v>
+        <v>1112.104028274421</v>
       </c>
       <c r="Q15" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="R15" t="n">
-        <v>1141.814125135753</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="S15" t="n">
-        <v>1141.814125135753</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="T15" t="n">
-        <v>1141.814125135753</v>
+        <v>949.1142005235687</v>
       </c>
       <c r="U15" t="n">
-        <v>913.6814268071994</v>
+        <v>949.1142005235687</v>
       </c>
       <c r="V15" t="n">
-        <v>893.4618112343986</v>
+        <v>713.9620922918259</v>
       </c>
       <c r="W15" t="n">
-        <v>893.4618112343986</v>
+        <v>459.7247355636243</v>
       </c>
       <c r="X15" t="n">
-        <v>685.6103110288658</v>
+        <v>251.8732353580914</v>
       </c>
       <c r="Y15" t="n">
-        <v>477.8500122639119</v>
+        <v>251.8732353580914</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.7083408467329</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="C16" t="n">
-        <v>176.7083408467329</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="D16" t="n">
-        <v>176.7083408467329</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="E16" t="n">
-        <v>176.7083408467329</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="F16" t="n">
-        <v>176.7083408467329</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="G16" t="n">
-        <v>176.7083408467329</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="H16" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="I16" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="J16" t="n">
-        <v>23.14358962409008</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="K16" t="n">
-        <v>133.0272692335382</v>
+        <v>132.2886316014811</v>
       </c>
       <c r="L16" t="n">
-        <v>329.1669821098113</v>
+        <v>327.7756081947566</v>
       </c>
       <c r="M16" t="n">
-        <v>546.3579316153258</v>
+        <v>544.2783388102301</v>
       </c>
       <c r="N16" t="n">
-        <v>763.8191822090937</v>
+        <v>761.0677348209174</v>
       </c>
       <c r="O16" t="n">
-        <v>948.6635487412887</v>
+        <v>945.291534902822</v>
       </c>
       <c r="P16" t="n">
-        <v>1083.309154931775</v>
+        <v>1079.406139288918</v>
       </c>
       <c r="Q16" t="n">
-        <v>1093.095713270559</v>
+        <v>1088.825059502308</v>
       </c>
       <c r="R16" t="n">
-        <v>1093.095713270559</v>
+        <v>1088.825059502308</v>
       </c>
       <c r="S16" t="n">
-        <v>1093.095713270559</v>
+        <v>1088.825059502308</v>
       </c>
       <c r="T16" t="n">
-        <v>1093.095713270559</v>
+        <v>1084.068572545289</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7995499875977</v>
+        <v>794.9203842484462</v>
       </c>
       <c r="V16" t="n">
-        <v>694.1150617817109</v>
+        <v>540.2358960425594</v>
       </c>
       <c r="W16" t="n">
-        <v>404.6978917447502</v>
+        <v>250.9045903118866</v>
       </c>
       <c r="X16" t="n">
-        <v>176.7083408467329</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.7083408467329</v>
+        <v>22.91503941386928</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>572.7453997880875</v>
+        <v>890.9089566058875</v>
       </c>
       <c r="C17" t="n">
-        <v>315.3606303322981</v>
+        <v>601.5776508752148</v>
       </c>
       <c r="D17" t="n">
-        <v>315.3606303322981</v>
+        <v>601.5776508752148</v>
       </c>
       <c r="E17" t="n">
-        <v>23.14358962409007</v>
+        <v>601.5776508752148</v>
       </c>
       <c r="F17" t="n">
-        <v>23.14358962409007</v>
+        <v>312.246345144542</v>
       </c>
       <c r="G17" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="H17" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="I17" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="J17" t="n">
-        <v>58.76757153274866</v>
+        <v>57.70830279358768</v>
       </c>
       <c r="K17" t="n">
-        <v>162.8972040951485</v>
+        <v>160.5929036226701</v>
       </c>
       <c r="L17" t="n">
-        <v>328.980982918711</v>
+        <v>325.1321104878156</v>
       </c>
       <c r="M17" t="n">
-        <v>545.4506252222324</v>
+        <v>539.8831188804427</v>
       </c>
       <c r="N17" t="n">
-        <v>770.0367810291009</v>
+        <v>762.722831482962</v>
       </c>
       <c r="O17" t="n">
-        <v>968.771858196483</v>
+        <v>959.8087918557766</v>
       </c>
       <c r="P17" t="n">
-        <v>1103.886647801378</v>
+        <v>1093.516098430174</v>
       </c>
       <c r="Q17" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="R17" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="S17" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="T17" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="U17" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="V17" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="W17" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="X17" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="Y17" t="n">
-        <v>864.9624404962956</v>
+        <v>890.9089566058875</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>505.7684835719239</v>
+        <v>88.3292676210462</v>
       </c>
       <c r="C18" t="n">
-        <v>331.3154542907969</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="D18" t="n">
-        <v>182.3810446295456</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="E18" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="F18" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="G18" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="H18" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="I18" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="J18" t="n">
-        <v>25.54314224318634</v>
+        <v>24.81982176812053</v>
       </c>
       <c r="K18" t="n">
-        <v>234.0980522529779</v>
+        <v>106.2302229257301</v>
       </c>
       <c r="L18" t="n">
-        <v>391.0239933685471</v>
+        <v>262.019095104799</v>
       </c>
       <c r="M18" t="n">
-        <v>593.5060331042203</v>
+        <v>463.1742290236532</v>
       </c>
       <c r="N18" t="n">
-        <v>815.7558148433308</v>
+        <v>684.061985697305</v>
       </c>
       <c r="O18" t="n">
-        <v>996.8511499166754</v>
+        <v>863.9113339289502</v>
       </c>
       <c r="P18" t="n">
-        <v>1122.86305571652</v>
+        <v>988.9232254401903</v>
       </c>
       <c r="Q18" t="n">
-        <v>1157.179481204504</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="R18" t="n">
-        <v>1141.814125135752</v>
+        <v>1130.05486694414</v>
       </c>
       <c r="S18" t="n">
-        <v>994.0665089176848</v>
+        <v>982.2080029564188</v>
       </c>
       <c r="T18" t="n">
-        <v>994.0665089176848</v>
+        <v>785.5702327865234</v>
       </c>
       <c r="U18" t="n">
-        <v>994.0665089176848</v>
+        <v>785.5702327865234</v>
       </c>
       <c r="V18" t="n">
-        <v>994.0665089176848</v>
+        <v>550.4181245547807</v>
       </c>
       <c r="W18" t="n">
-        <v>994.0665089176848</v>
+        <v>296.180767826579</v>
       </c>
       <c r="X18" t="n">
-        <v>786.215008712152</v>
+        <v>88.3292676210462</v>
       </c>
       <c r="Y18" t="n">
-        <v>578.4547099471981</v>
+        <v>88.3292676210462</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="C19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="D19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="E19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="F19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="G19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="H19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="I19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="J19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
       <c r="K19" t="n">
-        <v>133.0272692335382</v>
+        <v>132.2886316014811</v>
       </c>
       <c r="L19" t="n">
-        <v>329.1669821098113</v>
+        <v>327.7756081947566</v>
       </c>
       <c r="M19" t="n">
-        <v>546.3579316153257</v>
+        <v>544.2783388102301</v>
       </c>
       <c r="N19" t="n">
-        <v>763.8191822090935</v>
+        <v>761.0677348209174</v>
       </c>
       <c r="O19" t="n">
-        <v>948.6635487412884</v>
+        <v>945.291534902822</v>
       </c>
       <c r="P19" t="n">
-        <v>1083.309154931775</v>
+        <v>1079.406139288918</v>
       </c>
       <c r="Q19" t="n">
-        <v>1093.095713270559</v>
+        <v>1088.825059502308</v>
       </c>
       <c r="R19" t="n">
-        <v>1093.095713270559</v>
+        <v>1088.825059502308</v>
       </c>
       <c r="S19" t="n">
-        <v>887.007701252355</v>
+        <v>1088.825059502308</v>
       </c>
       <c r="T19" t="n">
-        <v>856.3931918237511</v>
+        <v>863.5082659770602</v>
       </c>
       <c r="U19" t="n">
-        <v>567.2452478669376</v>
+        <v>574.3600776802173</v>
       </c>
       <c r="V19" t="n">
-        <v>312.5607596610507</v>
+        <v>533.0389242880722</v>
       </c>
       <c r="W19" t="n">
-        <v>23.14358962409007</v>
+        <v>243.7076185573994</v>
       </c>
       <c r="X19" t="n">
-        <v>23.14358962409007</v>
+        <v>243.7076185573994</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.14358962409007</v>
+        <v>22.91503941386928</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>498.6466839441574</v>
+        <v>567.0893592321188</v>
       </c>
       <c r="C20" t="n">
-        <v>498.6466839441574</v>
+        <v>312.2463451445421</v>
       </c>
       <c r="D20" t="n">
-        <v>315.3606303322979</v>
+        <v>312.2463451445421</v>
       </c>
       <c r="E20" t="n">
-        <v>315.3606303322979</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="F20" t="n">
-        <v>315.3606303322979</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="G20" t="n">
-        <v>23.14358962409006</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="H20" t="n">
-        <v>23.14358962409006</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="I20" t="n">
-        <v>23.14358962409006</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="J20" t="n">
-        <v>58.76757153274843</v>
+        <v>57.70830279358768</v>
       </c>
       <c r="K20" t="n">
-        <v>162.8972040951483</v>
+        <v>160.5929036226701</v>
       </c>
       <c r="L20" t="n">
-        <v>328.9809829187109</v>
+        <v>325.1321104878156</v>
       </c>
       <c r="M20" t="n">
-        <v>545.450625222232</v>
+        <v>539.8831188804427</v>
       </c>
       <c r="N20" t="n">
-        <v>770.0367810291006</v>
+        <v>762.7228314829623</v>
       </c>
       <c r="O20" t="n">
-        <v>968.7718581964828</v>
+        <v>959.8087918557768</v>
       </c>
       <c r="P20" t="n">
-        <v>1103.886647801377</v>
+        <v>1093.516098430174</v>
       </c>
       <c r="Q20" t="n">
-        <v>1157.179481204503</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="R20" t="n">
-        <v>1157.179481204503</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="S20" t="n">
-        <v>1004.906343715917</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="T20" t="n">
-        <v>790.8637246523652</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="U20" t="n">
-        <v>790.8637246523652</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="V20" t="n">
-        <v>790.8637246523652</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="W20" t="n">
-        <v>498.6466839441574</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="X20" t="n">
-        <v>498.6466839441574</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="Y20" t="n">
-        <v>498.6466839441574</v>
+        <v>856.4206649627915</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>315.0802205742245</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="C21" t="n">
-        <v>315.0802205742245</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="D21" t="n">
-        <v>315.0802205742245</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="E21" t="n">
-        <v>155.842765568769</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="F21" t="n">
-        <v>155.842765568769</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="G21" t="n">
-        <v>23.14358962409006</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="H21" t="n">
-        <v>23.14358962409006</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="I21" t="n">
-        <v>23.14358962409006</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="J21" t="n">
-        <v>25.54314224318633</v>
+        <v>24.81982176812054</v>
       </c>
       <c r="K21" t="n">
-        <v>107.7991845892644</v>
+        <v>106.2302229257301</v>
       </c>
       <c r="L21" t="n">
-        <v>264.7251257048335</v>
+        <v>262.019095104799</v>
       </c>
       <c r="M21" t="n">
-        <v>551.127047302948</v>
+        <v>463.1742290236533</v>
       </c>
       <c r="N21" t="n">
-        <v>815.7558148433301</v>
+        <v>684.0619856973051</v>
       </c>
       <c r="O21" t="n">
-        <v>996.8511499166747</v>
+        <v>863.9113339289503</v>
       </c>
       <c r="P21" t="n">
-        <v>1122.863055716519</v>
+        <v>988.9232254401904</v>
       </c>
       <c r="Q21" t="n">
-        <v>1157.179481204503</v>
+        <v>1145.751970693464</v>
       </c>
       <c r="R21" t="n">
-        <v>1141.814125135752</v>
+        <v>1130.054866944141</v>
       </c>
       <c r="S21" t="n">
-        <v>994.0665089176841</v>
+        <v>1130.054866944141</v>
       </c>
       <c r="T21" t="n">
-        <v>797.4502756309794</v>
+        <v>933.4170967742454</v>
       </c>
       <c r="U21" t="n">
-        <v>569.3175773024261</v>
+        <v>705.2840469187629</v>
       </c>
       <c r="V21" t="n">
-        <v>569.3175773024261</v>
+        <v>470.1319386870202</v>
       </c>
       <c r="W21" t="n">
-        <v>315.0802205742245</v>
+        <v>398.9818766394702</v>
       </c>
       <c r="X21" t="n">
-        <v>315.0802205742245</v>
+        <v>191.1303764339373</v>
       </c>
       <c r="Y21" t="n">
-        <v>315.0802205742245</v>
+        <v>191.1303764339373</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>490.1095055467258</v>
+        <v>779.9861781599095</v>
       </c>
       <c r="C22" t="n">
-        <v>321.1733226188189</v>
+        <v>611.0499952320026</v>
       </c>
       <c r="D22" t="n">
-        <v>171.0566832064832</v>
+        <v>460.9333558196669</v>
       </c>
       <c r="E22" t="n">
-        <v>23.14358962409006</v>
+        <v>460.9333558196669</v>
       </c>
       <c r="F22" t="n">
-        <v>23.14358962409006</v>
+        <v>460.9333558196669</v>
       </c>
       <c r="G22" t="n">
-        <v>23.14358962409006</v>
+        <v>292.3996264488004</v>
       </c>
       <c r="H22" t="n">
-        <v>23.14358962409006</v>
+        <v>138.7950478013622</v>
       </c>
       <c r="I22" t="n">
-        <v>23.14358962409006</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="J22" t="n">
-        <v>23.14358962409006</v>
+        <v>22.91503941386929</v>
       </c>
       <c r="K22" t="n">
-        <v>133.0272692335381</v>
+        <v>132.2886316014811</v>
       </c>
       <c r="L22" t="n">
-        <v>329.1669821098112</v>
+        <v>327.7756081947566</v>
       </c>
       <c r="M22" t="n">
-        <v>546.3579316153256</v>
+        <v>544.2783388102301</v>
       </c>
       <c r="N22" t="n">
-        <v>763.8191822090935</v>
+        <v>761.0677348209174</v>
       </c>
       <c r="O22" t="n">
-        <v>948.6635487412884</v>
+        <v>945.291534902822</v>
       </c>
       <c r="P22" t="n">
-        <v>1083.309154931775</v>
+        <v>1079.406139288918</v>
       </c>
       <c r="Q22" t="n">
-        <v>1093.095713270559</v>
+        <v>1088.825059502308</v>
       </c>
       <c r="R22" t="n">
-        <v>966.1067143893179</v>
+        <v>961.6346429901492</v>
       </c>
       <c r="S22" t="n">
-        <v>966.1067143893179</v>
+        <v>961.6346429901492</v>
       </c>
       <c r="T22" t="n">
-        <v>966.1067143893179</v>
+        <v>961.6346429901492</v>
       </c>
       <c r="U22" t="n">
-        <v>718.0990564447432</v>
+        <v>961.6346429901492</v>
       </c>
       <c r="V22" t="n">
-        <v>718.0990564447432</v>
+        <v>961.6346429901492</v>
       </c>
       <c r="W22" t="n">
-        <v>718.0990564447432</v>
+        <v>961.6346429901492</v>
       </c>
       <c r="X22" t="n">
-        <v>490.1095055467258</v>
+        <v>961.6346429901492</v>
       </c>
       <c r="Y22" t="n">
-        <v>490.1095055467258</v>
+        <v>961.6346429901492</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>877.9374416333219</v>
+        <v>1468.828881207249</v>
       </c>
       <c r="C23" t="n">
-        <v>877.9374416333219</v>
+        <v>1099.866364266837</v>
       </c>
       <c r="D23" t="n">
-        <v>877.9374416333219</v>
+        <v>1099.866364266837</v>
       </c>
       <c r="E23" t="n">
-        <v>877.9374416333219</v>
+        <v>1099.866364266837</v>
       </c>
       <c r="F23" t="n">
-        <v>466.9515368437143</v>
+        <v>688.8804594772298</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800311</v>
+        <v>273.1757092015187</v>
       </c>
       <c r="H23" t="n">
         <v>51.24678656800311</v>
@@ -6016,25 +6016,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U23" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V23" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W23" t="n">
-        <v>2000.825031735866</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X23" t="n">
-        <v>1654.676613673255</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y23" t="n">
-        <v>1264.537281697444</v>
+        <v>1855.428721271371</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>165.4432786182523</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I24" t="n">
         <v>51.24678656800311</v>
@@ -6071,22 +6071,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L24" t="n">
-        <v>801.9449557744476</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M24" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O24" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P24" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.629344792067</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C25" t="n">
-        <v>155.629344792067</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D25" t="n">
-        <v>155.629344792067</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E25" t="n">
-        <v>155.629344792067</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F25" t="n">
-        <v>155.629344792067</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
         <v>51.24678656800311</v>
@@ -6180,19 +6180,19 @@
         <v>1216.838891429094</v>
       </c>
       <c r="U25" t="n">
-        <v>927.7205539329318</v>
+        <v>1058.137950582876</v>
       </c>
       <c r="V25" t="n">
-        <v>673.036065727045</v>
+        <v>803.4534623769887</v>
       </c>
       <c r="W25" t="n">
-        <v>383.6188956900843</v>
+        <v>514.036292340028</v>
       </c>
       <c r="X25" t="n">
-        <v>155.629344792067</v>
+        <v>514.036292340028</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.629344792067</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1457.824646659612</v>
+        <v>1646.341654153232</v>
       </c>
       <c r="C26" t="n">
-        <v>1211.005488048709</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D26" t="n">
-        <v>852.7397894419585</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E26" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F26" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I26" t="n">
         <v>51.24678656800311</v>
@@ -6253,25 +6253,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T26" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U26" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V26" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W26" t="n">
-        <v>1831.290404920692</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X26" t="n">
-        <v>1457.824646659612</v>
+        <v>2423.080826193166</v>
       </c>
       <c r="Y26" t="n">
-        <v>1457.824646659612</v>
+        <v>2032.941494217354</v>
       </c>
     </row>
     <row r="27">
@@ -6308,7 +6308,7 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K27" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L27" t="n">
         <v>801.9449557744476</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.1026499885492</v>
+        <v>155.629344792067</v>
       </c>
       <c r="C28" t="n">
-        <v>496.1664670606423</v>
+        <v>155.629344792067</v>
       </c>
       <c r="D28" t="n">
-        <v>346.0498276483066</v>
+        <v>155.629344792067</v>
       </c>
       <c r="E28" t="n">
-        <v>198.1367340659135</v>
+        <v>155.629344792067</v>
       </c>
       <c r="F28" t="n">
-        <v>51.24678656800311</v>
+        <v>155.629344792067</v>
       </c>
       <c r="G28" t="n">
-        <v>51.24678656800311</v>
+        <v>155.629344792067</v>
       </c>
       <c r="H28" t="n">
         <v>51.24678656800311</v>
@@ -6414,22 +6414,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T28" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U28" t="n">
-        <v>1295.533244860336</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V28" t="n">
-        <v>1295.533244860336</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W28" t="n">
-        <v>1295.533244860336</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.543693962319</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y28" t="n">
-        <v>846.7511148187889</v>
+        <v>155.629344792067</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1622.544763526516</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C29" t="n">
-        <v>1253.582246586104</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D29" t="n">
-        <v>1253.582246586104</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9374416333219</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F29" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G29" t="n">
         <v>51.24678656800311</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U29" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V29" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.544763526516</v>
+        <v>1928.679932416179</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.544763526516</v>
+        <v>1555.214174155099</v>
       </c>
       <c r="Y29" t="n">
-        <v>1622.544763526516</v>
+        <v>1165.074842179287</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>507.2413987429759</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L30" t="n">
-        <v>801.9449557744476</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M30" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O30" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P30" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.24678656800311</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="C31" t="n">
-        <v>51.24678656800311</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="D31" t="n">
-        <v>51.24678656800311</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E31" t="n">
-        <v>51.24678656800311</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H31" t="n">
         <v>51.24678656800311</v>
@@ -6648,25 +6648,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T31" t="n">
-        <v>1439.817372234359</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U31" t="n">
-        <v>1150.699034738196</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V31" t="n">
-        <v>896.0145465323095</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W31" t="n">
-        <v>606.597376495349</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X31" t="n">
-        <v>378.6078255973316</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.8152464538015</v>
+        <v>580.2476435302233</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1644.250531453059</v>
+        <v>1525.7614503848</v>
       </c>
       <c r="C32" t="n">
-        <v>1576.719435729147</v>
+        <v>1156.798933444388</v>
       </c>
       <c r="D32" t="n">
-        <v>1218.453737122396</v>
+        <v>1156.798933444388</v>
       </c>
       <c r="E32" t="n">
-        <v>832.6654845241519</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F32" t="n">
-        <v>421.6795797345444</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G32" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H32" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I32" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L32" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
         <v>2055.22848474084</v>
@@ -6733,19 +6733,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W32" t="n">
-        <v>1644.250531453059</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X32" t="n">
-        <v>1644.250531453059</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y32" t="n">
-        <v>1644.250531453059</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="33">
@@ -6782,7 +6782,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>590.20497511435</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L33" t="n">
         <v>884.9085321458217</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>833.0891146802707</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="C34" t="n">
-        <v>664.1529317523638</v>
+        <v>469.3672009680643</v>
       </c>
       <c r="D34" t="n">
-        <v>514.036292340028</v>
+        <v>319.2505615557285</v>
       </c>
       <c r="E34" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F34" t="n">
         <v>219.2332512597245</v>
@@ -6882,28 +6882,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T34" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V34" t="n">
-        <v>1235.53015865404</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W34" t="n">
-        <v>1235.53015865404</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X34" t="n">
-        <v>1235.53015865404</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="Y34" t="n">
-        <v>1014.73757951051</v>
+        <v>638.3033838959711</v>
       </c>
     </row>
     <row r="35">
@@ -6937,16 +6937,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N35" t="n">
         <v>1656.671415230817</v>
@@ -6967,22 +6967,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U35" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V35" t="n">
-        <v>1897.83159218888</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W35" t="n">
-        <v>1545.062936918766</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="X35" t="n">
-        <v>1545.062936918766</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="Y35" t="n">
-        <v>1246.899958573734</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>614.543024838023</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L36" t="n">
-        <v>909.2465818694948</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M36" t="n">
         <v>1272.508600828715</v>
@@ -7055,7 +7055,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
         <v>1307.279776881661</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>833.0891146802707</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C37" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D37" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E37" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F37" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G37" t="n">
         <v>51.24678656800311</v>
@@ -7119,28 +7119,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T37" t="n">
-        <v>1533.86271359008</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U37" t="n">
-        <v>1533.86271359008</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V37" t="n">
-        <v>1279.178225384193</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W37" t="n">
-        <v>1279.178225384193</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X37" t="n">
-        <v>1235.53015865404</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y37" t="n">
-        <v>1014.73757951051</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1660.900948886693</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="C38" t="n">
-        <v>1291.938431946281</v>
+        <v>1253.582246586104</v>
       </c>
       <c r="D38" t="n">
-        <v>1291.938431946281</v>
+        <v>1253.582246586104</v>
       </c>
       <c r="E38" t="n">
-        <v>906.1501793480365</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F38" t="n">
-        <v>495.164274558429</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G38" t="n">
-        <v>79.45952428271784</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H38" t="n">
-        <v>79.45952428271784</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
         <v>51.24678656800311</v>
@@ -7204,22 +7204,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U38" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V38" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W38" t="n">
-        <v>2437.640120926626</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X38" t="n">
-        <v>2437.640120926626</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y38" t="n">
-        <v>2047.500788950814</v>
+        <v>1622.544763526516</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>302.1446891756901</v>
       </c>
       <c r="G39" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I39" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>507.2413987429759</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L39" t="n">
-        <v>801.9449557744476</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M39" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O39" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q39" t="n">
         <v>2562.339328400155</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>665.1026499885492</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C40" t="n">
-        <v>496.1664670606423</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D40" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E40" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F40" t="n">
         <v>51.24678656800311</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T40" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U40" t="n">
-        <v>1550.217733066223</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V40" t="n">
-        <v>1295.533244860336</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W40" t="n">
-        <v>1295.533244860336</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.543693962319</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="Y40" t="n">
-        <v>846.7511148187889</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>901.3425442071332</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C41" t="n">
-        <v>901.3425442071332</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D41" t="n">
-        <v>543.0768456003827</v>
+        <v>522.379742609417</v>
       </c>
       <c r="E41" t="n">
-        <v>543.0768456003827</v>
+        <v>136.5914900111728</v>
       </c>
       <c r="F41" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G41" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H41" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I41" t="n">
         <v>51.2467865680031</v>
@@ -7450,13 +7450,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W41" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X41" t="n">
-        <v>1291.481876182945</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y41" t="n">
-        <v>901.3425442071332</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D42" t="n">
         <v>607.9167021542603</v>
@@ -7493,13 +7493,13 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>614.5430248380223</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2465818694941</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M42" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N42" t="n">
         <v>1659.793729425659</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.2996089082458</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C43" t="n">
-        <v>201.3634259803388</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D43" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E43" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F43" t="n">
         <v>51.2467865680031</v>
@@ -7596,25 +7596,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1439.817372234359</v>
+        <v>1498.322645727559</v>
       </c>
       <c r="T43" t="n">
-        <v>1216.838891429094</v>
+        <v>1498.322645727559</v>
       </c>
       <c r="U43" t="n">
-        <v>927.7205539329318</v>
+        <v>1209.204308231397</v>
       </c>
       <c r="V43" t="n">
-        <v>927.7205539329318</v>
+        <v>954.5198200255097</v>
       </c>
       <c r="W43" t="n">
-        <v>638.3033838959711</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="X43" t="n">
-        <v>591.0921880517759</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="Y43" t="n">
-        <v>370.2996089082458</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1263.725694231566</v>
+        <v>1216.983460896266</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.725694231566</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="D44" t="n">
-        <v>1263.725694231566</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9374416333219</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F44" t="n">
-        <v>466.9515368437143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G44" t="n">
         <v>51.2467865680031</v>
@@ -7648,19 +7648,19 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362809</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816073</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872907</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O44" t="n">
         <v>2055.22848474084</v>
@@ -7684,16 +7684,16 @@
         <v>2437.640120926626</v>
       </c>
       <c r="V44" t="n">
-        <v>2413.93062453258</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W44" t="n">
-        <v>2413.93062453258</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X44" t="n">
-        <v>2040.4648662715</v>
+        <v>1993.7226329362</v>
       </c>
       <c r="Y44" t="n">
-        <v>1650.325534295688</v>
+        <v>1603.583300960388</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I45" t="n">
         <v>51.2467865680031</v>
@@ -7730,25 +7730,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>551.2876347907468</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L45" t="n">
-        <v>845.9911918222185</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.253210781439</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.432194560477</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O45" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.2467865680031</v>
+        <v>486.0776982632539</v>
       </c>
       <c r="C46" t="n">
-        <v>51.2467865680031</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D46" t="n">
-        <v>51.2467865680031</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E46" t="n">
-        <v>51.2467865680031</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F46" t="n">
-        <v>51.2467865680031</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G46" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H46" t="n">
         <v>51.2467865680031</v>
@@ -7836,22 +7836,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T46" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U46" t="n">
-        <v>927.7205539329318</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V46" t="n">
-        <v>743.1050005787336</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="W46" t="n">
-        <v>453.6878305417729</v>
+        <v>895.7157139915109</v>
       </c>
       <c r="X46" t="n">
-        <v>453.6878305417729</v>
+        <v>667.7261630934936</v>
       </c>
       <c r="Y46" t="n">
-        <v>232.8952513982428</v>
+        <v>667.7261630934936</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.82100350776379</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K2" t="n">
-        <v>68.37996426625614</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L2" t="n">
-        <v>47.55688531513388</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>20.92686739226636</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N2" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.14966087982927</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P2" t="n">
-        <v>59.72805697682125</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.51262335026308</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>66.54876907979121</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K3" t="n">
-        <v>34.79817869043559</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.12044141380176</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.52562482607891</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>66.85797092510069</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L4" t="n">
-        <v>55.34730792350439</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M4" t="n">
-        <v>55.06478097631943</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N4" t="n">
-        <v>45.81856870604673</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>62.83913578423567</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P4" t="n">
-        <v>73.02425275703001</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8455,22 +8455,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K8" t="n">
-        <v>53.28984570098882</v>
+        <v>57.8521323086317</v>
       </c>
       <c r="L8" t="n">
-        <v>28.8362588753597</v>
+        <v>33.39854548300258</v>
       </c>
       <c r="M8" t="n">
-        <v>4.474515194684224</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.72420959127265</v>
+        <v>13.53987477884264</v>
       </c>
       <c r="P8" t="n">
-        <v>47.23127172271754</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q8" t="n">
         <v>80.70197082457096</v>
@@ -8613,19 +8613,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>65.05352634584477</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L10" t="n">
-        <v>51.99825569640058</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M10" t="n">
-        <v>46.72338342663512</v>
+        <v>51.10133522184798</v>
       </c>
       <c r="N10" t="n">
         <v>42.23779755379654</v>
       </c>
       <c r="O10" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P10" t="n">
         <v>71.15065506373918</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.95880174798779</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.574613801731</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.95880174798779</v>
+        <v>55.57983852312103</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>124.4250533679096</v>
       </c>
       <c r="K15" t="n">
-        <v>127.5746138017308</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.95880174798782</v>
+        <v>55.57983852312103</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>127.5746138017308</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>124.4250533679096</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.95880174798782</v>
+        <v>55.57983852312103</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>84.7675574368094</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>42.80705636492084</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>124.4250533679097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>319.4183821282443</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>20.9377812015499</v>
@@ -9956,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>211.0329012241562</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>211.0329012241562</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>20.9377812015499</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>168.7434581780645</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>193.3273467878353</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0329012241562</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>20.9377812015499</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>193.3273467878344</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>129.4330134067482</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.1100848867438</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H2" t="n">
-        <v>327.2605483852552</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I2" t="n">
-        <v>164.496149114352</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>74.95115227296735</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S2" t="n">
-        <v>181.8424978167795</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8750126833486</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H3" t="n">
-        <v>106.0724961650838</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>67.42608682026646</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.5380826090839</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S3" t="n">
-        <v>159.8302714297086</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5926354715572</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H4" t="n">
-        <v>157.4706880844321</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I4" t="n">
-        <v>139.362079762321</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>55.53588833985387</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.36451971353327</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R4" t="n">
-        <v>153.2386143258456</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S4" t="n">
-        <v>214.6933049501571</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T4" t="n">
-        <v>225.6597533558751</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>378.1715550558377</v>
       </c>
       <c r="C8" t="n">
-        <v>360.7106051633647</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>402.8575836976996</v>
       </c>
       <c r="G8" t="n">
         <v>409.4291687688446</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>63.48082925531696</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S8" t="n">
-        <v>174.5769412441708</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T8" t="n">
         <v>217.3557120022016</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>381.6756520484107</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>168.1462123806729</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23153,10 +23153,10 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T9" t="n">
-        <v>197.336797223147</v>
+        <v>193.3183351791351</v>
       </c>
       <c r="U9" t="n">
-        <v>221.8767622871533</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,7 +23165,7 @@
         <v>247.1326965532767</v>
       </c>
       <c r="X9" t="n">
-        <v>201.2106985958346</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23229,19 +23229,19 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S10" t="n">
-        <v>213.7659454939867</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T10" t="n">
-        <v>220.8701016233495</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U10" t="n">
-        <v>281.7246593293082</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V10" t="n">
         <v>248.1191812798162</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.43897136235461</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G11" t="n">
-        <v>412.7456486079471</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H11" t="n">
-        <v>313.2870153450287</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I11" t="n">
-        <v>111.8937194760429</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>107.8416772253846</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1410857952615</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V11" t="n">
-        <v>38.45738816900894</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>80.43623037734307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>153.958753150727</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>68.49982291821046</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.9753539804638</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H12" t="n">
-        <v>99.02186823470471</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I12" t="n">
-        <v>42.29101449807029</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>146.2701400558869</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T12" t="n">
-        <v>194.6500709538377</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U12" t="n">
-        <v>187.0272914681643</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8439573056238</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H13" t="n">
-        <v>152.0291037104164</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I13" t="n">
-        <v>120.95639355655</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J13" t="n">
-        <v>12.26472098124414</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>125.7191088924286</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S13" t="n">
-        <v>204.0271318980219</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T13" t="n">
-        <v>223.0446770207141</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>205.0685790855981</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.9588125087919</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>120.4380530683454</v>
       </c>
       <c r="G14" t="n">
-        <v>123.4507783068211</v>
+        <v>126.3175424969775</v>
       </c>
       <c r="H14" t="n">
-        <v>313.2870153450287</v>
+        <v>313.3882661021709</v>
       </c>
       <c r="I14" t="n">
-        <v>111.8937194760429</v>
+        <v>112.2748711728303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1410857952615</v>
+        <v>251.1418767202532</v>
       </c>
       <c r="V14" t="n">
-        <v>38.45738816900894</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>188.2779076027277</v>
+        <v>193.919691512517</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>97.50965012048836</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.9753539804638</v>
+        <v>135.9806437576932</v>
       </c>
       <c r="H15" t="n">
-        <v>99.02186823470471</v>
+        <v>99.07295634636722</v>
       </c>
       <c r="I15" t="n">
-        <v>42.29101449807029</v>
+        <v>42.47314060004607</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>15.5401327118304</v>
       </c>
       <c r="S15" t="n">
-        <v>146.2701400558869</v>
+        <v>146.3683953478445</v>
       </c>
       <c r="T15" t="n">
-        <v>194.6500709538377</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8517193569276</v>
       </c>
       <c r="V15" t="n">
-        <v>212.7831677323525</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8439573056238</v>
+        <v>166.8483920771578</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.0685328609638</v>
       </c>
       <c r="I16" t="n">
-        <v>120.95639355655</v>
+        <v>121.0897592314077</v>
       </c>
       <c r="J16" t="n">
-        <v>12.26472098124414</v>
+        <v>12.57825932869522</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>125.7191088924286</v>
+        <v>125.9185123470374</v>
       </c>
       <c r="S16" t="n">
-        <v>204.0271318980219</v>
+        <v>204.1044178710274</v>
       </c>
       <c r="T16" t="n">
-        <v>223.0446770207141</v>
+        <v>218.3547035025466</v>
       </c>
       <c r="U16" t="n">
-        <v>143.4032628671135</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.08500566322499026</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.43897136235466</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>110.461970009776</v>
+        <v>78.83489909764154</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>92.63549977113587</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>120.4380530683454</v>
       </c>
       <c r="G17" t="n">
-        <v>412.7456486079471</v>
+        <v>126.3175424969775</v>
       </c>
       <c r="H17" t="n">
-        <v>313.2870153450287</v>
+        <v>313.3882661021709</v>
       </c>
       <c r="I17" t="n">
-        <v>111.8937194760429</v>
+        <v>112.2748711728303</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>150.7504061137002</v>
+        <v>150.9756961543083</v>
       </c>
       <c r="T17" t="n">
-        <v>211.9021928729162</v>
+        <v>211.9454712998064</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1410857952615</v>
+        <v>251.1418767202532</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>96.94306835492768</v>
+        <v>133.9433547093528</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>94.57381953834583</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>107.9484130632106</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9753539804638</v>
+        <v>135.9806437576932</v>
       </c>
       <c r="H18" t="n">
-        <v>99.02186823470471</v>
+        <v>99.07295634636722</v>
       </c>
       <c r="I18" t="n">
-        <v>42.2910144980703</v>
+        <v>42.47314060004607</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.6500709538377</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8513713452678</v>
+        <v>225.8517193569276</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8439573056238</v>
+        <v>166.8483920771578</v>
       </c>
       <c r="H19" t="n">
-        <v>152.0291037104164</v>
+        <v>152.0685328609638</v>
       </c>
       <c r="I19" t="n">
-        <v>120.95639355655</v>
+        <v>121.0897592314077</v>
       </c>
       <c r="J19" t="n">
-        <v>12.26472098124415</v>
+        <v>12.57825932869522</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>125.7191088924286</v>
+        <v>125.9185123470374</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>204.1044178710274</v>
       </c>
       <c r="T19" t="n">
-        <v>192.7363126863962</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>211.2297014656044</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.08500566322499026</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>96.29584899011451</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>112.9783078243066</v>
       </c>
       <c r="D20" t="n">
-        <v>173.229848544942</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>95.49237739889571</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>123.4507783068213</v>
+        <v>412.7555351703435</v>
       </c>
       <c r="H20" t="n">
-        <v>313.2870153450287</v>
+        <v>313.3882661021709</v>
       </c>
       <c r="I20" t="n">
-        <v>111.8937194760429</v>
+        <v>112.2748711728303</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>150.9756961543083</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.9454712998064</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1410857952615</v>
+        <v>251.1418767202532</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>59.94609841628727</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>99.79994598268752</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>4.603169795231679</v>
+        <v>135.9806437576932</v>
       </c>
       <c r="H21" t="n">
-        <v>99.02186823470471</v>
+        <v>99.07295634636722</v>
       </c>
       <c r="I21" t="n">
-        <v>42.2910144980703</v>
+        <v>42.47314060004607</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>146.3683953478445</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>181.2564217338451</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8439573056238</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.0291037104164</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>120.95639355655</v>
+        <v>6.368550927789769</v>
       </c>
       <c r="J22" t="n">
-        <v>12.26472098124415</v>
+        <v>12.57825932869522</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>204.0271318980219</v>
+        <v>204.1044178710274</v>
       </c>
       <c r="T22" t="n">
-        <v>223.0446770207141</v>
+        <v>223.0636255899956</v>
       </c>
       <c r="U22" t="n">
-        <v>40.72888315211637</v>
+        <v>286.2567064138745</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>81.308919155225</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247049</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>27.04416679648466</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.96786740298093</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>129.1132226834444</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>120.9219247462138</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>231.8651834935492</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>43.91277651330559</v>
       </c>
       <c r="I28" t="n">
         <v>104.7965952039006</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>143.3858680209185</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>10.04201316900708</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>179.6216018019718</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.32920489499688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>82.64249253065914</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>104.7965952039006</v>
@@ -24888,10 +24888,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>363.6253699948545</v>
       </c>
       <c r="C32" t="n">
-        <v>298.4171070043338</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>47.41682545352523</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>151.4508742988866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>190.4252384360458</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>91.0565900944718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551288</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>182.4980693261863</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.2459207102715</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>10.04201316900708</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>37.77930233490292</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.3066000448042</v>
@@ -25599,25 +25599,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>200.8610509830091</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>191.7107030229583</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>286.6927525345315</v>
+        <v>322.3847893329735</v>
       </c>
       <c r="G41" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
@@ -25836,25 +25836,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.9202207582683</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>178.9705715032839</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
@@ -25924,13 +25924,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>304.2798570400296</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>279.4937562853609</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>50.32232772026263</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>104.7965952039006</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>69.36824550317175</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>324968.5321651491</v>
+        <v>323024.7801824258</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>551596.5030958251</v>
+        <v>533535.276715002</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551596.5030958251</v>
+        <v>549579.4305363609</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>551596.5030958252</v>
+        <v>549579.4305363609</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>551596.5030958249</v>
+        <v>549579.4305363612</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798289.7084872781</v>
+        <v>798289.708487278</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798289.7084872783</v>
+        <v>798289.7084872781</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798289.7084872781</v>
+        <v>798289.708487278</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798289.708487278</v>
+        <v>798289.7084872782</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798289.7084872782</v>
+        <v>798289.7084872781</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>798289.7084872781</v>
+        <v>798289.708487278</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112829.4439741433</v>
+        <v>113576.0141278201</v>
       </c>
       <c r="C2" t="n">
         <v>113576.0141278201</v>
@@ -26322,22 +26322,22 @@
         <v>115009.0002674151</v>
       </c>
       <c r="E2" t="n">
-        <v>200391.7307625041</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="F2" t="n">
-        <v>200391.7307625041</v>
+        <v>199652.0225776065</v>
       </c>
       <c r="G2" t="n">
-        <v>200391.7307625041</v>
+        <v>199652.0225776064</v>
       </c>
       <c r="H2" t="n">
-        <v>200391.7307625041</v>
+        <v>199652.0225776065</v>
       </c>
       <c r="I2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="J2" t="n">
-        <v>290673.0489695933</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="K2" t="n">
         <v>290673.0489695932</v>
@@ -26346,16 +26346,16 @@
         <v>290673.0489695932</v>
       </c>
       <c r="M2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="N2" t="n">
-        <v>290673.0489695933</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="O2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="P2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695932</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285877.3248289937</v>
+        <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
-        <v>21079.41386306861</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>6864.158965221272</v>
       </c>
       <c r="E3" t="n">
-        <v>333985.0030713587</v>
+        <v>308655.4636758682</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>21973.39390880169</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>317726.3196061571</v>
+        <v>320337.2457261949</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>1154.673679814957</v>
       </c>
       <c r="M3" t="n">
-        <v>70956.49878675076</v>
+        <v>64581.61368012429</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5565.748744380633</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22110.55097139577</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="C4" t="n">
         <v>18162.84752353982</v>
@@ -26426,16 +26426,16 @@
         <v>17783.9799822616</v>
       </c>
       <c r="E4" t="n">
-        <v>13951.44216274529</v>
+        <v>13649.17455297509</v>
       </c>
       <c r="F4" t="n">
-        <v>13951.44216274529</v>
+        <v>13917.68500315785</v>
       </c>
       <c r="G4" t="n">
-        <v>13951.44216274529</v>
+        <v>13917.68500315785</v>
       </c>
       <c r="H4" t="n">
-        <v>13951.44216274528</v>
+        <v>13917.68500315785</v>
       </c>
       <c r="I4" t="n">
         <v>18583.86599059036</v>
@@ -26444,7 +26444,7 @@
         <v>18583.86599059036</v>
       </c>
       <c r="K4" t="n">
-        <v>18583.86599059036</v>
+        <v>18583.86599059035</v>
       </c>
       <c r="L4" t="n">
         <v>18583.86599059036</v>
@@ -26453,7 +26453,7 @@
         <v>18583.86599059035</v>
       </c>
       <c r="N4" t="n">
-        <v>18583.86599059036</v>
+        <v>18583.86599059035</v>
       </c>
       <c r="O4" t="n">
         <v>18583.86599059034</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40095.05704060869</v>
+        <v>40599.70256325733</v>
       </c>
       <c r="C5" t="n">
         <v>40599.70256325733</v>
@@ -26478,16 +26478,16 @@
         <v>41015.74224309583</v>
       </c>
       <c r="E5" t="n">
-        <v>31455.58198576185</v>
+        <v>29420.2032042662</v>
       </c>
       <c r="F5" t="n">
-        <v>31455.58198576185</v>
+        <v>31228.27146975893</v>
       </c>
       <c r="G5" t="n">
-        <v>31455.58198576185</v>
+        <v>31228.27146975893</v>
       </c>
       <c r="H5" t="n">
-        <v>31455.58198576183</v>
+        <v>31228.27146975894</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249841.1413253492</v>
+        <v>-254825.2557087824</v>
       </c>
       <c r="C6" t="n">
-        <v>19185.6908854431</v>
+        <v>53358.62811177187</v>
       </c>
       <c r="D6" t="n">
-        <v>34872.18010746168</v>
+        <v>47897.82517989891</v>
       </c>
       <c r="E6" t="n">
-        <v>-188979.4075059422</v>
+        <v>-158989.3608145278</v>
       </c>
       <c r="F6" t="n">
-        <v>145005.5955654164</v>
+        <v>131530.8678900568</v>
       </c>
       <c r="G6" t="n">
-        <v>145005.5955654165</v>
+        <v>153504.2617988584</v>
       </c>
       <c r="H6" t="n">
-        <v>145005.5955654164</v>
+        <v>153504.2617988585</v>
       </c>
       <c r="I6" t="n">
-        <v>-110174.7717888905</v>
+        <v>-108080.9814592258</v>
       </c>
       <c r="J6" t="n">
-        <v>207551.5478172666</v>
+        <v>212256.264266969</v>
       </c>
       <c r="K6" t="n">
-        <v>207551.5478172665</v>
+        <v>212256.264266969</v>
       </c>
       <c r="L6" t="n">
-        <v>206396.8741374516</v>
+        <v>211101.5905871541</v>
       </c>
       <c r="M6" t="n">
-        <v>136595.0490305157</v>
+        <v>147674.6505868447</v>
       </c>
       <c r="N6" t="n">
-        <v>207551.5478172666</v>
+        <v>206690.5155225884</v>
       </c>
       <c r="O6" t="n">
-        <v>207551.5478172665</v>
+        <v>212256.264266969</v>
       </c>
       <c r="P6" t="n">
-        <v>207551.5478172664</v>
+        <v>212256.264266969</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
         <v>319.8212184980426</v>
@@ -26746,16 +26746,16 @@
         <v>326.1814319885848</v>
       </c>
       <c r="E3" t="n">
-        <v>636.0758656629996</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="F3" t="n">
-        <v>636.0758656629996</v>
+        <v>633.6165832668936</v>
       </c>
       <c r="G3" t="n">
-        <v>636.0758656629995</v>
+        <v>633.6165832668936</v>
       </c>
       <c r="H3" t="n">
-        <v>636.0758656629995</v>
+        <v>633.6165832668936</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175392</v>
@@ -26798,16 +26798,16 @@
         <v>4.562286607642875</v>
       </c>
       <c r="E4" t="n">
-        <v>289.294870301126</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F4" t="n">
-        <v>289.294870301126</v>
+        <v>286.437992673366</v>
       </c>
       <c r="G4" t="n">
-        <v>289.2948703011259</v>
+        <v>286.437992673366</v>
       </c>
       <c r="H4" t="n">
-        <v>289.2948703011257</v>
+        <v>286.4379926733661</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
-        <v>23.14887718571737</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>6.360213490542151</v>
       </c>
       <c r="E3" t="n">
-        <v>309.8944336744148</v>
+        <v>287.8735817808936</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>19.56156949741523</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>297.9890264545397</v>
+        <v>300.4483088506456</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="E4" t="n">
-        <v>284.7325836934831</v>
+        <v>259.1515933938633</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>22.7241126718598</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>351.2899617989131</v>
+        <v>354.1468394266728</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>4.562286607642932</v>
       </c>
       <c r="M4" t="n">
-        <v>284.7325836934831</v>
+        <v>259.1515933938632</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>22.72411267185991</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="M4" t="n">
-        <v>284.7325836934831</v>
+        <v>259.1515933938633</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>22.7241126718598</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.192652628391256</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H2" t="n">
-        <v>12.21425373051196</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I2" t="n">
-        <v>45.97974045605396</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>101.2249010189225</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K2" t="n">
-        <v>151.7098867787244</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L2" t="n">
-        <v>188.2095296548534</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M2" t="n">
-        <v>209.4193658350064</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N2" t="n">
-        <v>212.8079901154231</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>200.9485505418575</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P2" t="n">
-        <v>171.5049387784483</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.7930665241864</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>74.91796566818233</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S2" t="n">
-        <v>27.17757176946579</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T2" t="n">
-        <v>5.220836880782728</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H3" t="n">
-        <v>6.162948071412645</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I3" t="n">
-        <v>21.97054603114862</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>60.28885758687547</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K3" t="n">
-        <v>103.0432602839234</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>121.8539660005285</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.45614925994261</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R3" t="n">
-        <v>39.61975154355923</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S3" t="n">
-        <v>11.85289967412921</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.572093223264404</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>4.756484423007447</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I4" t="n">
-        <v>16.08839516493725</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>37.82329177681891</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K4" t="n">
-        <v>62.15528724543469</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L4" t="n">
-        <v>79.5373683577339</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M4" t="n">
-        <v>83.86100297128563</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86697575918646</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>75.61740266760712</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P4" t="n">
-        <v>64.7037512921176</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.79752353816112</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R4" t="n">
-        <v>24.05477705132394</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S4" t="n">
-        <v>9.323293086815202</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28583607240644</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.557088907187936</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H11" t="n">
-        <v>26.18778677073846</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I11" t="n">
-        <v>98.58217009436301</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J11" t="n">
-        <v>217.0297246364423</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K11" t="n">
-        <v>325.2712980777077</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L11" t="n">
-        <v>403.5278077210606</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M11" t="n">
-        <v>449.002437574264</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N11" t="n">
-        <v>456.2677664318118</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O11" t="n">
-        <v>430.8407136109617</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P11" t="n">
-        <v>367.7125812147595</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.1368347260914</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R11" t="n">
-        <v>160.6267360661443</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S11" t="n">
-        <v>58.26966347254515</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T11" t="n">
-        <v>11.1936566912152</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2045671125750348</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.368163182746829</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H12" t="n">
-        <v>13.21357600179175</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I12" t="n">
-        <v>47.10561835334479</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2614171910064</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K12" t="n">
-        <v>220.9283504350439</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L12" t="n">
-        <v>297.0654314117622</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M12" t="n">
-        <v>346.6613467863347</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N12" t="n">
-        <v>355.8364411127379</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O12" t="n">
-        <v>325.5208253266107</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P12" t="n">
-        <v>261.2591607475064</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q12" t="n">
-        <v>174.64483013449</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R12" t="n">
-        <v>84.94613164457949</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S12" t="n">
-        <v>25.41303104795096</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T12" t="n">
-        <v>5.514657740983929</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09001073570702828</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.147022052834917</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H13" t="n">
-        <v>10.19806879702318</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I13" t="n">
-        <v>34.49408137070825</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J13" t="n">
-        <v>81.09445913542864</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K13" t="n">
-        <v>133.2631075930022</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L13" t="n">
-        <v>170.5308968369295</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M13" t="n">
-        <v>179.8009205184771</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N13" t="n">
-        <v>175.5256565033652</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O13" t="n">
-        <v>162.1263534316118</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P13" t="n">
-        <v>138.7271035537794</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.04745571511293</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R13" t="n">
-        <v>51.5742824847409</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S13" t="n">
-        <v>19.98946613895032</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T13" t="n">
-        <v>4.900912407567372</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06256483924554102</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.557088907187936</v>
+        <v>2.54720234479153</v>
       </c>
       <c r="H14" t="n">
-        <v>26.18778677073846</v>
+        <v>26.08653601359627</v>
       </c>
       <c r="I14" t="n">
-        <v>98.58217009436301</v>
+        <v>98.20101839757557</v>
       </c>
       <c r="J14" t="n">
-        <v>217.0297246364423</v>
+        <v>216.1906150112503</v>
       </c>
       <c r="K14" t="n">
-        <v>325.2712980777077</v>
+        <v>324.0136902662759</v>
       </c>
       <c r="L14" t="n">
-        <v>403.5278077210606</v>
+        <v>401.9676340256897</v>
       </c>
       <c r="M14" t="n">
-        <v>449.002437574264</v>
+        <v>447.2664437248761</v>
       </c>
       <c r="N14" t="n">
-        <v>456.2677664318118</v>
+        <v>454.5036823870151</v>
       </c>
       <c r="O14" t="n">
-        <v>430.8407136109617</v>
+        <v>429.1749390709942</v>
       </c>
       <c r="P14" t="n">
-        <v>367.7125812147595</v>
+        <v>366.2908811839533</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.1368347260914</v>
+        <v>275.0691972111065</v>
       </c>
       <c r="R14" t="n">
-        <v>160.6267360661443</v>
+        <v>160.0056992910111</v>
       </c>
       <c r="S14" t="n">
-        <v>58.26966347254515</v>
+        <v>58.04437343193705</v>
       </c>
       <c r="T14" t="n">
-        <v>11.1936566912152</v>
+        <v>11.15037826432493</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2045671125750348</v>
+        <v>0.2037761875833224</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.368163182746829</v>
+        <v>1.362873405517469</v>
       </c>
       <c r="H15" t="n">
-        <v>13.21357600179175</v>
+        <v>13.16248789012925</v>
       </c>
       <c r="I15" t="n">
-        <v>47.10561835334479</v>
+        <v>46.92349225136901</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2614171910064</v>
+        <v>128.7616492467185</v>
       </c>
       <c r="K15" t="n">
-        <v>220.9283504350439</v>
+        <v>220.0741674163889</v>
       </c>
       <c r="L15" t="n">
-        <v>297.0654314117622</v>
+        <v>295.9168769304488</v>
       </c>
       <c r="M15" t="n">
-        <v>346.6613467863347</v>
+        <v>345.321037880457</v>
       </c>
       <c r="N15" t="n">
-        <v>355.8364411127379</v>
+        <v>354.4606582183351</v>
       </c>
       <c r="O15" t="n">
-        <v>325.5208253266107</v>
+        <v>324.2622527592375</v>
       </c>
       <c r="P15" t="n">
-        <v>261.2591607475064</v>
+        <v>260.2490453044718</v>
       </c>
       <c r="Q15" t="n">
-        <v>174.64483013449</v>
+        <v>173.9695947113177</v>
       </c>
       <c r="R15" t="n">
-        <v>84.94613164457949</v>
+        <v>84.61770144081274</v>
       </c>
       <c r="S15" t="n">
-        <v>25.41303104795096</v>
+        <v>25.31477575599333</v>
       </c>
       <c r="T15" t="n">
-        <v>5.514657740983929</v>
+        <v>5.493336226625236</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09001073570702828</v>
+        <v>0.08966272404720196</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.147022052834917</v>
+        <v>1.142587281300955</v>
       </c>
       <c r="H16" t="n">
-        <v>10.19806879702318</v>
+        <v>10.15863964647578</v>
       </c>
       <c r="I16" t="n">
-        <v>34.49408137070825</v>
+        <v>34.36071569585057</v>
       </c>
       <c r="J16" t="n">
-        <v>81.09445913542864</v>
+        <v>80.78092078797755</v>
       </c>
       <c r="K16" t="n">
-        <v>133.2631075930022</v>
+        <v>132.7478677729655</v>
       </c>
       <c r="L16" t="n">
-        <v>170.5308968369295</v>
+        <v>169.8715672581439</v>
       </c>
       <c r="M16" t="n">
-        <v>179.8009205184771</v>
+        <v>179.1057499224761</v>
       </c>
       <c r="N16" t="n">
-        <v>175.5256565033652</v>
+        <v>174.8470155103545</v>
       </c>
       <c r="O16" t="n">
-        <v>162.1263534316118</v>
+        <v>161.4995186333388</v>
       </c>
       <c r="P16" t="n">
-        <v>138.7271035537794</v>
+        <v>138.1907380947991</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.04745571511293</v>
+        <v>95.67610407330093</v>
       </c>
       <c r="R16" t="n">
-        <v>51.5742824847409</v>
+        <v>51.37487903013204</v>
       </c>
       <c r="S16" t="n">
-        <v>19.98946613895032</v>
+        <v>19.91218016594483</v>
       </c>
       <c r="T16" t="n">
-        <v>4.900912407567372</v>
+        <v>4.8819638382859</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06256483924554102</v>
+        <v>0.06232294261641583</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.557088907187936</v>
+        <v>2.54720234479153</v>
       </c>
       <c r="H17" t="n">
-        <v>26.18778677073845</v>
+        <v>26.08653601359627</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58217009436299</v>
+        <v>98.20101839757557</v>
       </c>
       <c r="J17" t="n">
-        <v>217.0297246364423</v>
+        <v>216.1906150112503</v>
       </c>
       <c r="K17" t="n">
-        <v>325.2712980777076</v>
+        <v>324.0136902662759</v>
       </c>
       <c r="L17" t="n">
-        <v>403.5278077210605</v>
+        <v>401.9676340256897</v>
       </c>
       <c r="M17" t="n">
-        <v>449.0024375742639</v>
+        <v>447.2664437248761</v>
       </c>
       <c r="N17" t="n">
-        <v>456.2677664318117</v>
+        <v>454.5036823870151</v>
       </c>
       <c r="O17" t="n">
-        <v>430.8407136109616</v>
+        <v>429.1749390709942</v>
       </c>
       <c r="P17" t="n">
-        <v>367.7125812147594</v>
+        <v>366.2908811839533</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.1368347260914</v>
+        <v>275.0691972111065</v>
       </c>
       <c r="R17" t="n">
-        <v>160.6267360661443</v>
+        <v>160.0056992910111</v>
       </c>
       <c r="S17" t="n">
-        <v>58.26966347254514</v>
+        <v>58.04437343193705</v>
       </c>
       <c r="T17" t="n">
-        <v>11.19365669121519</v>
+        <v>11.15037826432493</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2045671125750348</v>
+        <v>0.2037761875833224</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.368163182746829</v>
+        <v>1.362873405517469</v>
       </c>
       <c r="H18" t="n">
-        <v>13.21357600179175</v>
+        <v>13.16248789012925</v>
       </c>
       <c r="I18" t="n">
-        <v>47.10561835334478</v>
+        <v>46.92349225136901</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2614171910064</v>
+        <v>128.7616492467185</v>
       </c>
       <c r="K18" t="n">
-        <v>220.9283504350439</v>
+        <v>220.0741674163889</v>
       </c>
       <c r="L18" t="n">
-        <v>297.0654314117622</v>
+        <v>295.9168769304488</v>
       </c>
       <c r="M18" t="n">
-        <v>346.6613467863347</v>
+        <v>345.321037880457</v>
       </c>
       <c r="N18" t="n">
-        <v>355.8364411127378</v>
+        <v>354.4606582183351</v>
       </c>
       <c r="O18" t="n">
-        <v>325.5208253266107</v>
+        <v>324.2622527592375</v>
       </c>
       <c r="P18" t="n">
-        <v>261.2591607475064</v>
+        <v>260.2490453044718</v>
       </c>
       <c r="Q18" t="n">
-        <v>174.64483013449</v>
+        <v>173.9695947113177</v>
       </c>
       <c r="R18" t="n">
-        <v>84.94613164457948</v>
+        <v>84.61770144081274</v>
       </c>
       <c r="S18" t="n">
-        <v>25.41303104795096</v>
+        <v>25.31477575599333</v>
       </c>
       <c r="T18" t="n">
-        <v>5.514657740983927</v>
+        <v>5.493336226625236</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09001073570702826</v>
+        <v>0.08966272404720196</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.147022052834917</v>
+        <v>1.142587281300955</v>
       </c>
       <c r="H19" t="n">
-        <v>10.19806879702318</v>
+        <v>10.15863964647578</v>
       </c>
       <c r="I19" t="n">
-        <v>34.49408137070824</v>
+        <v>34.36071569585057</v>
       </c>
       <c r="J19" t="n">
-        <v>81.09445913542862</v>
+        <v>80.78092078797755</v>
       </c>
       <c r="K19" t="n">
-        <v>133.2631075930021</v>
+        <v>132.7478677729655</v>
       </c>
       <c r="L19" t="n">
-        <v>170.5308968369294</v>
+        <v>169.8715672581439</v>
       </c>
       <c r="M19" t="n">
-        <v>179.800920518477</v>
+        <v>179.1057499224761</v>
       </c>
       <c r="N19" t="n">
-        <v>175.5256565033652</v>
+        <v>174.8470155103545</v>
       </c>
       <c r="O19" t="n">
-        <v>162.1263534316118</v>
+        <v>161.4995186333388</v>
       </c>
       <c r="P19" t="n">
-        <v>138.7271035537794</v>
+        <v>138.1907380947991</v>
       </c>
       <c r="Q19" t="n">
-        <v>96.04745571511292</v>
+        <v>95.67610407330093</v>
       </c>
       <c r="R19" t="n">
-        <v>51.57428248474089</v>
+        <v>51.37487903013204</v>
       </c>
       <c r="S19" t="n">
-        <v>19.98946613895032</v>
+        <v>19.91218016594483</v>
       </c>
       <c r="T19" t="n">
-        <v>4.900912407567371</v>
+        <v>4.8819638382859</v>
       </c>
       <c r="U19" t="n">
-        <v>0.062564839245541</v>
+        <v>0.06232294261641583</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.557088907187936</v>
+        <v>2.54720234479153</v>
       </c>
       <c r="H20" t="n">
-        <v>26.18778677073845</v>
+        <v>26.08653601359627</v>
       </c>
       <c r="I20" t="n">
-        <v>98.58217009436299</v>
+        <v>98.20101839757557</v>
       </c>
       <c r="J20" t="n">
-        <v>217.0297246364423</v>
+        <v>216.1906150112503</v>
       </c>
       <c r="K20" t="n">
-        <v>325.2712980777076</v>
+        <v>324.0136902662759</v>
       </c>
       <c r="L20" t="n">
-        <v>403.5278077210605</v>
+        <v>401.9676340256897</v>
       </c>
       <c r="M20" t="n">
-        <v>449.0024375742639</v>
+        <v>447.2664437248761</v>
       </c>
       <c r="N20" t="n">
-        <v>456.2677664318117</v>
+        <v>454.5036823870151</v>
       </c>
       <c r="O20" t="n">
-        <v>430.8407136109616</v>
+        <v>429.1749390709942</v>
       </c>
       <c r="P20" t="n">
-        <v>367.7125812147594</v>
+        <v>366.2908811839533</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.1368347260914</v>
+        <v>275.0691972111065</v>
       </c>
       <c r="R20" t="n">
-        <v>160.6267360661443</v>
+        <v>160.0056992910111</v>
       </c>
       <c r="S20" t="n">
-        <v>58.26966347254514</v>
+        <v>58.04437343193705</v>
       </c>
       <c r="T20" t="n">
-        <v>11.19365669121519</v>
+        <v>11.15037826432493</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2045671125750348</v>
+        <v>0.2037761875833224</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.368163182746829</v>
+        <v>1.362873405517469</v>
       </c>
       <c r="H21" t="n">
-        <v>13.21357600179175</v>
+        <v>13.16248789012925</v>
       </c>
       <c r="I21" t="n">
-        <v>47.10561835334478</v>
+        <v>46.92349225136901</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2614171910064</v>
+        <v>128.7616492467185</v>
       </c>
       <c r="K21" t="n">
-        <v>220.9283504350439</v>
+        <v>220.0741674163889</v>
       </c>
       <c r="L21" t="n">
-        <v>297.0654314117622</v>
+        <v>295.9168769304488</v>
       </c>
       <c r="M21" t="n">
-        <v>346.6613467863347</v>
+        <v>345.321037880457</v>
       </c>
       <c r="N21" t="n">
-        <v>355.8364411127378</v>
+        <v>354.4606582183351</v>
       </c>
       <c r="O21" t="n">
-        <v>325.5208253266107</v>
+        <v>324.2622527592375</v>
       </c>
       <c r="P21" t="n">
-        <v>261.2591607475064</v>
+        <v>260.2490453044718</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.64483013449</v>
+        <v>173.9695947113177</v>
       </c>
       <c r="R21" t="n">
-        <v>84.94613164457948</v>
+        <v>84.61770144081274</v>
       </c>
       <c r="S21" t="n">
-        <v>25.41303104795096</v>
+        <v>25.31477575599333</v>
       </c>
       <c r="T21" t="n">
-        <v>5.514657740983927</v>
+        <v>5.493336226625236</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09001073570702826</v>
+        <v>0.08966272404720196</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.147022052834917</v>
+        <v>1.142587281300955</v>
       </c>
       <c r="H22" t="n">
-        <v>10.19806879702318</v>
+        <v>10.15863964647578</v>
       </c>
       <c r="I22" t="n">
-        <v>34.49408137070824</v>
+        <v>34.36071569585057</v>
       </c>
       <c r="J22" t="n">
-        <v>81.09445913542862</v>
+        <v>80.78092078797755</v>
       </c>
       <c r="K22" t="n">
-        <v>133.2631075930021</v>
+        <v>132.7478677729655</v>
       </c>
       <c r="L22" t="n">
-        <v>170.5308968369294</v>
+        <v>169.8715672581439</v>
       </c>
       <c r="M22" t="n">
-        <v>179.800920518477</v>
+        <v>179.1057499224761</v>
       </c>
       <c r="N22" t="n">
-        <v>175.5256565033652</v>
+        <v>174.8470155103545</v>
       </c>
       <c r="O22" t="n">
-        <v>162.1263534316118</v>
+        <v>161.4995186333388</v>
       </c>
       <c r="P22" t="n">
-        <v>138.7271035537794</v>
+        <v>138.1907380947991</v>
       </c>
       <c r="Q22" t="n">
-        <v>96.04745571511292</v>
+        <v>95.67610407330093</v>
       </c>
       <c r="R22" t="n">
-        <v>51.57428248474089</v>
+        <v>51.37487903013204</v>
       </c>
       <c r="S22" t="n">
-        <v>19.98946613895032</v>
+        <v>19.91218016594483</v>
       </c>
       <c r="T22" t="n">
-        <v>4.900912407567371</v>
+        <v>4.8819638382859</v>
       </c>
       <c r="U22" t="n">
-        <v>0.062564839245541</v>
+        <v>0.06232294261641583</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>144.7659768979354</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491891</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K44" t="n">
         <v>477.6545005857143</v>
@@ -34386,7 +34386,7 @@
         <v>632.6811099166596</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190638</v>
       </c>
       <c r="Q44" t="n">
         <v>405.5015080147052</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M8" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O8" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P8" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P10" t="n">
         <v>4.562286607642875</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>35.98382010975601</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K11" t="n">
-        <v>105.1814470327271</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L11" t="n">
-        <v>167.7613927510733</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M11" t="n">
-        <v>218.6562043469913</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N11" t="n">
-        <v>226.8547028352208</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O11" t="n">
-        <v>200.742502189275</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P11" t="n">
-        <v>136.47958545949</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.83114485164194</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.423790524339694</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K12" t="n">
-        <v>83.08691146068495</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L12" t="n">
-        <v>158.5110516318881</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M12" t="n">
-        <v>204.5273128643164</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N12" t="n">
-        <v>224.4947290294046</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O12" t="n">
-        <v>182.9245808821663</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P12" t="n">
-        <v>127.2847533331762</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.2376698501995</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>110.9936157671193</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L13" t="n">
-        <v>198.1209220972456</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M13" t="n">
-        <v>219.3847974803176</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N13" t="n">
-        <v>219.6578288825938</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O13" t="n">
-        <v>186.7114813456515</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P13" t="n">
-        <v>136.0056628186729</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.885412463418547</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>35.98382010975601</v>
+        <v>35.14471048456403</v>
       </c>
       <c r="K14" t="n">
-        <v>105.1814470327271</v>
+        <v>103.9238392212953</v>
       </c>
       <c r="L14" t="n">
-        <v>167.7613927510733</v>
+        <v>166.2012190557025</v>
       </c>
       <c r="M14" t="n">
-        <v>218.6562043469913</v>
+        <v>216.9202104976033</v>
       </c>
       <c r="N14" t="n">
-        <v>226.8547028352208</v>
+        <v>225.0906187904242</v>
       </c>
       <c r="O14" t="n">
-        <v>200.742502189275</v>
+        <v>199.0767276493075</v>
       </c>
       <c r="P14" t="n">
-        <v>136.47958545949</v>
+        <v>135.0578854286837</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.83114485164194</v>
+        <v>52.76350733665706</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.423790524339694</v>
+        <v>126.3490759479614</v>
       </c>
       <c r="K15" t="n">
-        <v>210.6615252624158</v>
+        <v>82.2327284420299</v>
       </c>
       <c r="L15" t="n">
-        <v>158.5110516318881</v>
+        <v>157.3624971505746</v>
       </c>
       <c r="M15" t="n">
-        <v>204.5273128643164</v>
+        <v>203.1870039584387</v>
       </c>
       <c r="N15" t="n">
-        <v>224.4947290294046</v>
+        <v>223.1189461350018</v>
       </c>
       <c r="O15" t="n">
-        <v>182.9245808821663</v>
+        <v>181.6660083147931</v>
       </c>
       <c r="P15" t="n">
-        <v>127.2847533331762</v>
+        <v>126.2746378901416</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.66305604846852</v>
+        <v>33.98782062529617</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>110.9936157671193</v>
+        <v>110.4783759470827</v>
       </c>
       <c r="L16" t="n">
-        <v>198.1209220972456</v>
+        <v>197.46159251846</v>
       </c>
       <c r="M16" t="n">
-        <v>219.3847974803176</v>
+        <v>218.6896268843167</v>
       </c>
       <c r="N16" t="n">
-        <v>219.6578288825938</v>
+        <v>218.9791878895831</v>
       </c>
       <c r="O16" t="n">
-        <v>186.7114813456515</v>
+        <v>186.0846465473784</v>
       </c>
       <c r="P16" t="n">
-        <v>136.0056628186729</v>
+        <v>135.4692973596926</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.885412463418547</v>
+        <v>9.514060821606549</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>35.98382010975598</v>
+        <v>35.14471048456403</v>
       </c>
       <c r="K17" t="n">
-        <v>105.1814470327271</v>
+        <v>103.9238392212953</v>
       </c>
       <c r="L17" t="n">
-        <v>167.7613927510733</v>
+        <v>166.2012190557025</v>
       </c>
       <c r="M17" t="n">
-        <v>218.6562043469912</v>
+        <v>216.9202104976033</v>
       </c>
       <c r="N17" t="n">
-        <v>226.8547028352208</v>
+        <v>225.0906187904242</v>
       </c>
       <c r="O17" t="n">
-        <v>200.7425021892749</v>
+        <v>199.0767276493075</v>
       </c>
       <c r="P17" t="n">
-        <v>136.4795854594899</v>
+        <v>135.0578854286837</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.83114485164188</v>
+        <v>52.76350733665706</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.423790524339665</v>
+        <v>1.924022580051769</v>
       </c>
       <c r="K18" t="n">
-        <v>210.6615252624158</v>
+        <v>82.2327284420299</v>
       </c>
       <c r="L18" t="n">
-        <v>158.511051631888</v>
+        <v>157.3624971505746</v>
       </c>
       <c r="M18" t="n">
-        <v>204.5273128643163</v>
+        <v>203.1870039584387</v>
       </c>
       <c r="N18" t="n">
-        <v>224.4947290294045</v>
+        <v>223.1189461350018</v>
       </c>
       <c r="O18" t="n">
-        <v>182.9245808821663</v>
+        <v>181.6660083147931</v>
       </c>
       <c r="P18" t="n">
-        <v>127.2847533331761</v>
+        <v>126.2746378901416</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.66305604846849</v>
+        <v>158.4128739932058</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>110.9936157671193</v>
+        <v>110.4783759470827</v>
       </c>
       <c r="L19" t="n">
-        <v>198.1209220972456</v>
+        <v>197.46159251846</v>
       </c>
       <c r="M19" t="n">
-        <v>219.3847974803176</v>
+        <v>218.6896268843167</v>
       </c>
       <c r="N19" t="n">
-        <v>219.6578288825938</v>
+        <v>218.9791878895831</v>
       </c>
       <c r="O19" t="n">
-        <v>186.7114813456515</v>
+        <v>186.0846465473784</v>
       </c>
       <c r="P19" t="n">
-        <v>136.0056628186728</v>
+        <v>135.4692973596926</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.885412463418533</v>
+        <v>9.514060821606549</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>35.98382010975598</v>
+        <v>35.14471048456403</v>
       </c>
       <c r="K20" t="n">
-        <v>105.1814470327271</v>
+        <v>103.9238392212953</v>
       </c>
       <c r="L20" t="n">
-        <v>167.7613927510733</v>
+        <v>166.2012190557025</v>
       </c>
       <c r="M20" t="n">
-        <v>218.6562043469912</v>
+        <v>216.9202104976033</v>
       </c>
       <c r="N20" t="n">
-        <v>226.8547028352208</v>
+        <v>225.0906187904242</v>
       </c>
       <c r="O20" t="n">
-        <v>200.7425021892749</v>
+        <v>199.0767276493075</v>
       </c>
       <c r="P20" t="n">
-        <v>136.4795854594899</v>
+        <v>135.0578854286837</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.83114485164188</v>
+        <v>52.76350733665706</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.423790524339665</v>
+        <v>1.924022580051769</v>
       </c>
       <c r="K21" t="n">
-        <v>83.08691146068492</v>
+        <v>82.2327284420299</v>
       </c>
       <c r="L21" t="n">
-        <v>158.511051631888</v>
+        <v>157.3624971505746</v>
       </c>
       <c r="M21" t="n">
-        <v>289.2948703011257</v>
+        <v>203.1870039584387</v>
       </c>
       <c r="N21" t="n">
-        <v>267.3017853943253</v>
+        <v>223.1189461350018</v>
       </c>
       <c r="O21" t="n">
-        <v>182.9245808821663</v>
+        <v>181.6660083147931</v>
       </c>
       <c r="P21" t="n">
-        <v>127.2847533331761</v>
+        <v>126.2746378901416</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.66305604846849</v>
+        <v>158.4128739932059</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>110.9936157671193</v>
+        <v>110.4783759470827</v>
       </c>
       <c r="L22" t="n">
-        <v>198.1209220972456</v>
+        <v>197.46159251846</v>
       </c>
       <c r="M22" t="n">
-        <v>219.3847974803176</v>
+        <v>218.6896268843167</v>
       </c>
       <c r="N22" t="n">
-        <v>219.6578288825938</v>
+        <v>218.9791878895831</v>
       </c>
       <c r="O22" t="n">
-        <v>186.7114813456515</v>
+        <v>186.0846465473784</v>
       </c>
       <c r="P22" t="n">
-        <v>136.0056628186728</v>
+        <v>135.4692973596926</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.885412463418533</v>
+        <v>9.514060821606549</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K24" t="n">
-        <v>397.620397467641</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378502</v>
+        <v>617.0987427660945</v>
       </c>
       <c r="M24" t="n">
         <v>366.9313322820405</v>
@@ -36454,10 +36454,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K27" t="n">
-        <v>397.620397467641</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L27" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620064</v>
       </c>
       <c r="M27" t="n">
         <v>366.9313322820405</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>397.620397467641</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378502</v>
@@ -36928,10 +36928,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
-        <v>355.3309544215493</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
-        <v>297.6803606378502</v>
+        <v>466.4238188159148</v>
       </c>
       <c r="M33" t="n">
         <v>366.9313322820405</v>
@@ -37387,13 +37387,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>379.9148430313201</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
-        <v>366.9313322820405</v>
+        <v>560.2586790698758</v>
       </c>
       <c r="N36" t="n">
         <v>391.1970995928739</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>397.620397467641</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
@@ -37639,10 +37639,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
@@ -37870,7 +37870,7 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
-        <v>391.197099592874</v>
+        <v>584.5244463807084</v>
       </c>
       <c r="O42" t="n">
         <v>335.4246819961231</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225028</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
         <v>257.5646495407338</v>
@@ -38034,7 +38034,7 @@
         <v>402.5828984949728</v>
       </c>
       <c r="P44" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637942</v>
       </c>
       <c r="Q44" t="n">
         <v>183.1958181402557</v>
@@ -38098,7 +38098,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>316.020509650233</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38107,19 +38107,19 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
-        <v>335.4246819961231</v>
+        <v>528.7520287839574</v>
       </c>
       <c r="P45" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
